--- a/reverseprimer-v3_05.xlsx
+++ b/reverseprimer-v3_05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_05" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R0385-ACGTAGCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTAGCTCTGTCTCGTGGGCTCGG</t>
+    <t>R0385-CTGTTGTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTTGTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R0386-AACTCTAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCTAGTCGTCTCGTGGGCTCGG</t>
+    <t>R0386-TTCATCGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCATCGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R0387-TCATCCTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATCCTACAGTCTCGTGGGCTCGG</t>
+    <t>R0387-AACAAGAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAAGAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R0388-ACGATCAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGATCAAGCGTCTCGTGGGCTCGG</t>
+    <t>R0388-TCTAGCAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTAGCAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R0389-ACGTCCTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTCCTTCAGTCTCGTGGGCTCGG</t>
+    <t>R0389-TTGATCGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGATCGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R0390-CATGACGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGACGAGTGTCTCGTGGGCTCGG</t>
+    <t>R0390-CGATGAGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATGAGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R0391-CAGAGTCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGAGTCTCAGTCTCGTGGGCTCGG</t>
+    <t>R0391-GGTAGCTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTAGCTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R0392-TACCACTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCACTGGAGTCTCGTGGGCTCGG</t>
+    <t>R0392-GAAGACTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGACTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R0393-ATGAACTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAACTCAGGTCTCGTGGGCTCGG</t>
+    <t>R0393-CAAGACTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGACTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R0394-GATGAACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGAACTACGTCTCGTGGGCTCGG</t>
+    <t>R0394-ATGAAGAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAAGAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R0395-TGTACCTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTACCTTGGGTCTCGTGGGCTCGG</t>
+    <t>R0395-AAGACAGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACAGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R0396-CAAGAAGCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGAAGCAGGTCTCGTGGGCTCGG</t>
+    <t>R0396-AGTCTTCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCTTCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R0397-TGGACTTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGACTTGTTGTCTCGTGGGCTCGG</t>
+    <t>R0397-ACTGAAGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGAAGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R0398-CAAGTGTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTGTAGCGTCTCGTGGGCTCGG</t>
+    <t>R0398-GACACTACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACACTACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R0399-ACTGACACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGACACGAGTCTCGTGGGCTCGG</t>
+    <t>R0399-AGATCGACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATCGACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R0400-TTCCTGGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTGGAGAGTCTCGTGGGCTCGG</t>
+    <t>R0400-GACGAAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACGAAGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R0401-TCTTCGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTCGAACAGTCTCGTGGGCTCGG</t>
+    <t>R0401-TCGTCGTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTCGTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R0402-TGACAACTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACAACTGAGTCTCGTGGGCTCGG</t>
+    <t>R0402-TCTGGTGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGGTGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R0403-GAAGGTTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGGTTGACGTCTCGTGGGCTCGG</t>
+    <t>R0403-GGTGTACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGTACACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R0404-GTGTAGGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTAGGTCTGTCTCGTGGGCTCGG</t>
+    <t>R0404-ACGATGTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGATGTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R0405-GTCAACCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAACCAACGTCTCGTGGGCTCGG</t>
+    <t>R0405-GAGAACGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAACGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R0406-GTCACCATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCACCATGAGTCTCGTGGGCTCGG</t>
+    <t>R0406-CTGAACAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAACAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R0407-CGAACTCCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAACTCCTTGTCTCGTGGGCTCGG</t>
+    <t>R0407-AGTAGGATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGGATGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R0408-ATCCAGTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCAGTGGAGTCTCGTGGGCTCGG</t>
+    <t>R0408-TAGACACCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACACCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R0409-AAGCAAGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCAAGTAGGTCTCGTGGGCTCGG</t>
+    <t>R0409-TTCCAAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCAAGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R0410-ACCTACTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTACTCACGTCTCGTGGGCTCGG</t>
+    <t>R0410-TAGGTTGTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGTTGTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R0411-CTGAGACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAGACACAGTCTCGTGGGCTCGG</t>
+    <t>R0411-TAGTGCTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTGCTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R0412-TTCTCATCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTCATCGTGTCTCGTGGGCTCGG</t>
+    <t>R0412-AGACGTAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACGTAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R0413-AGAGTTGTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGTTGTGGGTCTCGTGGGCTCGG</t>
+    <t>R0413-ATCTCCAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTCCAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R0414-TTCATGCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCATGCTCAGTCTCGTGGGCTCGG</t>
+    <t>R0414-ACAGCTGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGCTGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R0415-AACAGACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGACGTTGTCTCGTGGGCTCGG</t>
+    <t>R0415-GTTCTGTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCTGTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R0416-AGCATCAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCATCAAGAGTCTCGTGGGCTCGG</t>
+    <t>R0416-GCATCAAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCAAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R0417-TACCATCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCATCATGGTCTCGTGGGCTCGG</t>
+    <t>R0417-TAGGAAGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGAAGAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R0418-GTAGTTCCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGTTCCTTGTCTCGTGGGCTCGG</t>
+    <t>R0418-CAACATGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACATGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R0419-GTACTGAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACTGAGTTGTCTCGTGGGCTCGG</t>
+    <t>R0419-TTGGAACCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGAACCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R0420-AACCAGCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAGCTAGGTCTCGTGGGCTCGG</t>
+    <t>R0420-CCTACTGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTACTGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R0421-CAACAGGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACAGGAACGTCTCGTGGGCTCGG</t>
+    <t>R0421-TGAAGGTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAAGGTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R0422-ACAGGTACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGGTACACGTCTCGTGGGCTCGG</t>
+    <t>R0422-AAGTGGATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGGATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R0423-AGTTCGTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTCGTGAGGTCTCGTGGGCTCGG</t>
+    <t>R0423-TGTCGAGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCGAGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R0424-GGTGAAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGAAGTGAGTCTCGTGGGCTCGG</t>
+    <t>R0424-ATCAGGTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAGGTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R0425-AGCTTCCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTTCCTTCGTCTCGTGGGCTCGG</t>
+    <t>R0425-CTAGATCAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGATCAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R0426-ACAAGCACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGCACTCGTCTCGTGGGCTCGG</t>
+    <t>R0426-AGTGAGTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGAGTAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R0427-GTTGACATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGACATGAGTCTCGTGGGCTCGG</t>
+    <t>R0427-GTGTCTGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTCTGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R0428-GATGCTTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGCTTCCAGTCTCGTGGGCTCGG</t>
+    <t>R0428-GTCTTGTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTTGTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R0429-TCACACTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACACTAGAGTCTCGTGGGCTCGG</t>
+    <t>R0429-CTGCAGAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGCAGAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R0430-GAGCAGTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGCAGTTGAGTCTCGTGGGCTCGG</t>
+    <t>R0430-TCCTTCGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R0431-ACTCCAAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCCAAGGTGTCTCGTGGGCTCGG</t>
+    <t>R0431-CTCTACACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTACACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R0432-GGAGCAAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAGCAAGTTGTCTCGTGGGCTCGG</t>
+    <t>R0432-GCATCGTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCGTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R0433-TGATCCAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATCCAGGAGTCTCGTGGGCTCGG</t>
+    <t>R0433-AACAGATGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGATGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R0434-CGAACTGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAACTGTCTGTCTCGTGGGCTCGG</t>
+    <t>R0434-TCGACCACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGACCACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R0435-TACTGAAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTGAAGTCGTCTCGTGGGCTCGG</t>
+    <t>R0435-ACACGTCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACGTCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R0436-GTTGAGGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGAGGAACGTCTCGTGGGCTCGG</t>
+    <t>R0436-CATGGATCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGGATCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R0437-GTGAGTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAGTCAAGGTCTCGTGGGCTCGG</t>
+    <t>R0437-ACACACCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACACCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R0438-ATGTCAACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTCAACCTGTCTCGTGGGCTCGG</t>
+    <t>R0438-TGACACACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACACACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R0439-GACCAGTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACCAGTGTTGTCTCGTGGGCTCGG</t>
+    <t>R0439-TACCACCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCACCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R0440-CTAGATCGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGATCGAGGTCTCGTGGGCTCGG</t>
+    <t>R0440-AAGCAACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCAACGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R0441-ACTAGCTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGCTGAGGTCTCGTGGGCTCGG</t>
+    <t>R0441-CACACTAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACACTAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R0442-GAGCACATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGCACATCTGTCTCGTGGGCTCGG</t>
+    <t>R0442-AGCACACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCACACAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R0443-CTGTAGCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTAGCAGAGTCTCGTGGGCTCGG</t>
+    <t>R0443-GTGCTCATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGCTCATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R0444-CTAGCTAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGCTAGACGTCTCGTGGGCTCGG</t>
+    <t>R0444-GGTTGAAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTGAAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R0445-TTGTTGCTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTTGCTGGGTCTCGTGGGCTCGG</t>
+    <t>R0445-TGTACACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTACACGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R0446-AGATCCTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATCCTCTAGTCTCGTGGGCTCGG</t>
+    <t>R0446-TCTAGTCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTAGTCGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R0447-GACTAGATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTAGATGCGTCTCGTGGGCTCGG</t>
+    <t>R0447-CTACGTCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACGTCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R0448-TGTCCAGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCCAGTTCGTCTCGTGGGCTCGG</t>
+    <t>R0448-ACAACTCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACTCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R0449-TCACACACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACACACGTGTCTCGTGGGCTCGG</t>
+    <t>R0449-ACAGAAGCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGAAGCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R0450-GGTTGCAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTTGCAACTGTCTCGTGGGCTCGG</t>
+    <t>R0450-ACCACTACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCACTACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R0451-CTGAGTGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAGTGCTTGTCTCGTGGGCTCGG</t>
+    <t>R0451-TCCTCGAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTCGAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R0452-ACACGATCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACGATCAGGTCTCGTGGGCTCGG</t>
+    <t>R0452-ACACAAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACAAGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R0453-GCTACAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTACAGAAGGTCTCGTGGGCTCGG</t>
+    <t>R0453-CAGCTTGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGCTTGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R0454-GTTGATCCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGATCCTGGTCTCGTGGGCTCGG</t>
+    <t>R0454-TACAGTCACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGTCACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R0455-ATGTCTAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTCTAGACGTCTCGTGGGCTCGG</t>
+    <t>R0455-TTCAGGAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCAGGAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R0456-TCTGCTAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGCTAGCAGTCTCGTGGGCTCGG</t>
+    <t>R0456-TCTCCTACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCCTACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R0457-TAGTCAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCAGTGAGTCTCGTGGGCTCGG</t>
+    <t>R0457-GAAGGACATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGGACATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R0458-AGTGCACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGCACTACGTCTCGTGGGCTCGG</t>
+    <t>R0458-AGGATGTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGATGTTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R0459-CTGAGCATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAGCATCAGTCTCGTGGGCTCGG</t>
+    <t>R0459-AGACTTCCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTTCCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R0460-AACTGCTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGCTTCAGTCTCGTGGGCTCGG</t>
+    <t>R0460-GTGGTCAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGGTCAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R0461-CTCAGTCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAGTCCTAGTCTCGTGGGCTCGG</t>
+    <t>R0461-CTTGAGTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGAGTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R0462-TGTGGTAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGGTAGAAGTCTCGTGGGCTCGG</t>
+    <t>R0462-TCGATGAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGATGAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R0463-TCGATGGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGATGGAAGGTCTCGTGGGCTCGG</t>
+    <t>R0463-ACTTCAGGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTCAGGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R0464-AACAGTTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGTTGTGGTCTCGTGGGCTCGG</t>
+    <t>R0464-AACACTCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACTCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R0465-TTCCATGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCATGGAAGTCTCGTGGGCTCGG</t>
+    <t>R0465-CAGAGAACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGAGAACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R0466-AAGCTACCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTACCAAGTCTCGTGGGCTCGG</t>
+    <t>R0466-AGAGTGAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGTGAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R0467-TGAACAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACAGAAGGTCTCGTGGGCTCGG</t>
+    <t>R0467-TAGCAGTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCAGTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R0468-ATGTGAACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTGAACACGTCTCGTGGGCTCGG</t>
+    <t>R0468-CAGACATCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGACATCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R0469-CTTCTGATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCTGATGTGTCTCGTGGGCTCGG</t>
+    <t>R0469-ATCACGAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCACGAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R0470-AAGGAGTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGAGTCCAGTCTCGTGGGCTCGG</t>
+    <t>R0470-TCTGAGTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGAGTAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R0471-TCTGTAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTAGTTGGTCTCGTGGGCTCGG</t>
+    <t>R0471-CGTGAAGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGAAGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R0472-GTGTCACATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTCACATGGTCTCGTGGGCTCGG</t>
+    <t>R0472-AACACACCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACACCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R0473-GCATCAAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCAAGGAGTCTCGTGGGCTCGG</t>
+    <t>R0473-ACCACCTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCACCTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R0474-TACTCTCGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCTCGAGGTCTCGTGGGCTCGG</t>
+    <t>R0474-AACGTCAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTCAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R0475-CAGTGCTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTGCTAGTGTCTCGTGGGCTCGG</t>
+    <t>R0475-TTGGACAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGACAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R0476-TTGGTGTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGTGTCGAGTCTCGTGGGCTCGG</t>
+    <t>R0476-ACAGATCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGATCCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R0477-GTACCTGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACCTGACAGTCTCGTGGGCTCGG</t>
+    <t>R0477-AACTCGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCGATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R0478-TACACTGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACTGACAGTCTCGTGGGCTCGG</t>
+    <t>R0478-CATCGACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCGACTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R0479-GTACACACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACACACTAGTCTCGTGGGCTCGG</t>
+    <t>R0479-TAGGTCTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGTCTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R0480-AGTGTTCCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGTTCCTCGTCTCGTGGGCTCGG</t>
+    <t>R0480-CGTGTAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGTAGTCAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
